--- a/Divisions/SP1.xlsx
+++ b/Divisions/SP1.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11166" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11270" uniqueCount="339">
   <si>
     <t>Team</t>
   </si>
@@ -786,6 +787,255 @@
   <si>
     <t>2.7647</t>
   </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Alaves,L D W W D L</t>
+  </si>
+  <si>
+    <t>Ath Bilbao,D D D W D W</t>
+  </si>
+  <si>
+    <t>Ath Madrid,L D W W L W</t>
+  </si>
+  <si>
+    <t>Barcelona,W L W W L W</t>
+  </si>
+  <si>
+    <t>Betis,D D D D D D</t>
+  </si>
+  <si>
+    <t>Cadiz,W W D L D W</t>
+  </si>
+  <si>
+    <t>Celta,W L D L W W</t>
+  </si>
+  <si>
+    <t>Eibar,L L L L L W</t>
+  </si>
+  <si>
+    <t>Elche,D L L D W L</t>
+  </si>
+  <si>
+    <t>Getafe,D L D L W L</t>
+  </si>
+  <si>
+    <t>Granada,L W W L W L</t>
+  </si>
+  <si>
+    <t>Huesca,W W L L L W</t>
+  </si>
+  <si>
+    <t>Levante,L W L L L L</t>
+  </si>
+  <si>
+    <t>Osasuna,D W W W L L</t>
+  </si>
+  <si>
+    <t>Real Madrid,W W D W D W</t>
+  </si>
+  <si>
+    <t>Sevilla,W W W W W L</t>
+  </si>
+  <si>
+    <t>Sociedad,D D L W W L</t>
+  </si>
+  <si>
+    <t>Valencia,L D D L D L</t>
+  </si>
+  <si>
+    <t>Valladolid,L L D D D D</t>
+  </si>
+  <si>
+    <t>Villarreal,W L W L L W</t>
+  </si>
+  <si>
+    <t>Alaves,1 0 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Ath Bilbao,1 0 0 2 2 1</t>
+  </si>
+  <si>
+    <t>Ath Madrid,0 1 5 2 1 1</t>
+  </si>
+  <si>
+    <t>Barcelona,1 1 5 2 1 3</t>
+  </si>
+  <si>
+    <t>Betis,1 1 2 0 0 1</t>
+  </si>
+  <si>
+    <t>Cadiz,2 1 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Celta,3 3 0 1 2 2</t>
+  </si>
+  <si>
+    <t>Eibar,0 0 0 1 0 3</t>
+  </si>
+  <si>
+    <t>Elche,1 1 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Getafe,0 0 0 2 2 0</t>
+  </si>
+  <si>
+    <t>Granada,0 2 4 1 2 0</t>
+  </si>
+  <si>
+    <t>Huesca,2 3 0 0 0 1</t>
+  </si>
+  <si>
+    <t>Levante,0 1 1 0 0 0</t>
+  </si>
+  <si>
+    <t>Osasuna,0 2 2 3 1 0</t>
+  </si>
+  <si>
+    <t>Real Madrid,2 2 0 3 0 2</t>
+  </si>
+  <si>
+    <t>Sevilla,1 4 2 1 2 0</t>
+  </si>
+  <si>
+    <t>Sociedad,1 2 1 2 1 0</t>
+  </si>
+  <si>
+    <t>Valencia,1 2 2 1 1 2</t>
+  </si>
+  <si>
+    <t>Valladolid,0 1 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Villarreal,3 1 5 1 1 1</t>
+  </si>
+  <si>
+    <t>Alaves,3 0 0 1 1 3</t>
+  </si>
+  <si>
+    <t>Ath Bilbao,1 0 0 1 2 0</t>
+  </si>
+  <si>
+    <t>Ath Madrid,1 1 0 0 2 0</t>
+  </si>
+  <si>
+    <t>Barcelona,0 2 2 1 2 2</t>
+  </si>
+  <si>
+    <t>Cadiz,1 0 0 3 1 0</t>
+  </si>
+  <si>
+    <t>Celta,1 4 0 2 1 0</t>
+  </si>
+  <si>
+    <t>Eibar,2 1 5 4 1 0</t>
+  </si>
+  <si>
+    <t>Elche,1 3 2 1 0 1</t>
+  </si>
+  <si>
+    <t>Getafe,0 1 0 5 0 1</t>
+  </si>
+  <si>
+    <t>Granada,3 1 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Huesca,0 1 1 2 2 0</t>
+  </si>
+  <si>
+    <t>Levante,2 0 5 1 1 2</t>
+  </si>
+  <si>
+    <t>Osasuna,0 1 0 1 2 2</t>
+  </si>
+  <si>
+    <t>Real Madrid,0 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Sevilla,0 3 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Sociedad,1 2 2 1 0 1</t>
+  </si>
+  <si>
+    <t>Valencia,2 2 2 3 1 3</t>
+  </si>
+  <si>
+    <t>Valladolid,1 2 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Villarreal,0 2 1 2 2 0</t>
+  </si>
+  <si>
+    <t>Alaves,4 0 1 3 2 3</t>
+  </si>
+  <si>
+    <t>Ath Bilbao,2 0 0 3 4 1</t>
+  </si>
+  <si>
+    <t>Ath Madrid,1 2 5 2 3 1</t>
+  </si>
+  <si>
+    <t>Barcelona,1 3 7 3 3 5</t>
+  </si>
+  <si>
+    <t>Betis,2 2 4 0 0 2</t>
+  </si>
+  <si>
+    <t>Cadiz,3 1 0 3 2 1</t>
+  </si>
+  <si>
+    <t>Celta,4 7 0 3 3 2</t>
+  </si>
+  <si>
+    <t>Eibar,2 1 5 5 1 3</t>
+  </si>
+  <si>
+    <t>Elche,2 4 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Getafe,0 1 0 7 2 1</t>
+  </si>
+  <si>
+    <t>Granada,3 3 5 3 3 1</t>
+  </si>
+  <si>
+    <t>Huesca,2 4 1 2 2 1</t>
+  </si>
+  <si>
+    <t>Levante,2 1 6 1 1 2</t>
+  </si>
+  <si>
+    <t>Osasuna,0 3 2 4 3 2</t>
+  </si>
+  <si>
+    <t>Real Madrid,2 3 0 3 0 2</t>
+  </si>
+  <si>
+    <t>Sevilla,1 7 3 1 3 1</t>
+  </si>
+  <si>
+    <t>Sociedad,2 4 3 3 1 1</t>
+  </si>
+  <si>
+    <t>Valencia,3 4 4 4 2 5</t>
+  </si>
+  <si>
+    <t>Valladolid,1 3 2 2 4 2</t>
+  </si>
+  <si>
+    <t>Villarreal,3 3 6 3 3 1</t>
+  </si>
 </sst>
 </file>
 
@@ -34659,4 +34909,372 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/SP1.xlsx
+++ b/Divisions/SP1.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="750" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1488,11 +1495,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1504,7 +1510,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1522,19 +1528,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1595,7 +1874,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1627,7 +1906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1970,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +2002,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +2034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1787,7 +2066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1819,7 +2098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1851,7 +2130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1883,7 +2162,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1915,7 +2194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1947,7 +2226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +2258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2011,7 +2290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2043,7 +2322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2075,7 +2354,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2107,7 +2386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2139,7 +2418,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2171,7 +2450,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2204,20 +2483,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>98</v>
       </c>
@@ -2606,7 +2884,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2998,7 +3276,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3390,7 +3668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3782,7 +4060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4174,7 +4452,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4566,7 +4844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4958,7 +5236,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -5350,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5742,7 +6020,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -6134,7 +6412,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -6526,7 +6804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -6918,7 +7196,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -7310,7 +7588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -7702,7 +7980,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -8094,7 +8372,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -8486,7 +8764,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8878,7 +9156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -9270,7 +9548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -9662,7 +9940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -10054,7 +10332,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -10447,20 +10725,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>98</v>
       </c>
@@ -10849,7 +11126,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -11241,7 +11518,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -11633,7 +11910,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -12025,7 +12302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -12417,7 +12694,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -12809,7 +13086,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -13201,7 +13478,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -13593,7 +13870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -13985,7 +14262,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -14377,7 +14654,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -14769,7 +15046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -15161,7 +15438,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -15553,7 +15830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -15945,7 +16222,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -16337,7 +16614,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -16729,7 +17006,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -17121,7 +17398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -17513,7 +17790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -17905,7 +18182,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -18297,7 +18574,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -18690,20 +18967,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>98</v>
       </c>
@@ -19092,7 +19368,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -19484,7 +19760,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -19876,7 +20152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -20268,7 +20544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -20660,7 +20936,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -21052,7 +21328,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -21444,7 +21720,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -21836,7 +22112,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -22228,7 +22504,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -22620,7 +22896,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -23012,7 +23288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -23404,7 +23680,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -23796,7 +24072,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -24188,7 +24464,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -24580,7 +24856,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -24972,7 +25248,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -25364,7 +25640,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -25756,7 +26032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -26148,7 +26424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -26540,7 +26816,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -26933,20 +27209,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DZ21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>98</v>
       </c>
@@ -27335,7 +27610,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -27727,7 +28002,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -28119,7 +28394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -28511,7 +28786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -28903,7 +29178,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -29295,7 +29570,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -29687,7 +29962,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -30079,7 +30354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -30471,7 +30746,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -30863,7 +31138,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -31255,7 +31530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -31647,7 +31922,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -32039,7 +32314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -32431,7 +32706,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -32823,7 +33098,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -33215,7 +33490,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -33607,7 +33882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -33999,7 +34274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -34391,7 +34666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -34783,7 +35058,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -35176,20 +35451,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -35266,7 +35540,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -35346,7 +35620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -35426,7 +35700,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -35506,7 +35780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -35586,7 +35860,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -35666,7 +35940,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -35746,7 +36020,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -35826,7 +36100,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -35906,7 +36180,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -35986,7 +36260,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -36066,7 +36340,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -36146,7 +36420,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -36226,7 +36500,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -36306,7 +36580,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -36386,7 +36660,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -36466,7 +36740,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -36546,7 +36820,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -36626,7 +36900,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -36706,7 +36980,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -36786,7 +37060,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -36867,20 +37141,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>273</v>
       </c>
@@ -36954,36 +37227,36 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="J2" t="n">
-        <v>32.0</v>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>93</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>296</v>
@@ -36994,32 +37267,32 @@
       <c r="M2" t="s">
         <v>335</v>
       </c>
-      <c r="N2" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="N2">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>68</v>
+      </c>
+      <c r="P2">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>148</v>
+      </c>
+      <c r="R2">
+        <v>23</v>
+      </c>
+      <c r="S2">
         <v>1.2777777777777777</v>
       </c>
-      <c r="T2" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2">
+        <v>31</v>
+      </c>
+      <c r="U2">
         <v>1.7222222222222223</v>
       </c>
-      <c r="V2" t="n">
-        <v>54.0</v>
+      <c r="V2">
+        <v>54</v>
       </c>
       <c r="W2" t="s">
         <v>354</v>
@@ -37031,36 +37304,36 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>132</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
         <v>1.6111111111111112</v>
       </c>
-      <c r="H3" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="J3" t="n">
-        <v>46.0</v>
+      <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="J3">
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>297</v>
@@ -37071,32 +37344,32 @@
       <c r="M3" t="s">
         <v>336</v>
       </c>
-      <c r="N3" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="N3">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>47</v>
+      </c>
+      <c r="P3">
+        <v>61</v>
+      </c>
+      <c r="Q3">
+        <v>108</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>21</v>
+      </c>
+      <c r="U3">
         <v>1.1666666666666667</v>
       </c>
-      <c r="V3" t="n">
-        <v>39.0</v>
+      <c r="V3">
+        <v>39</v>
       </c>
       <c r="W3" t="s">
         <v>355</v>
@@ -37108,36 +37381,36 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>175.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>175</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="G4">
         <v>2.1666666666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="J4" t="n">
-        <v>63.0</v>
+      <c r="J4">
+        <v>63</v>
       </c>
       <c r="K4" t="s">
         <v>298</v>
@@ -37148,32 +37421,32 @@
       <c r="M4" t="s">
         <v>337</v>
       </c>
-      <c r="N4" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="T4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="V4" t="n">
-        <v>23.0</v>
+      <c r="N4">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>57</v>
+      </c>
+      <c r="P4">
+        <v>59</v>
+      </c>
+      <c r="Q4">
+        <v>116</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="T4">
+        <v>13</v>
+      </c>
+      <c r="U4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="V4">
+        <v>23</v>
       </c>
       <c r="W4" t="s">
         <v>356</v>
@@ -37185,36 +37458,36 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>234.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.388888888888889</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="C5">
+        <v>125</v>
+      </c>
+      <c r="D5">
+        <v>109</v>
+      </c>
+      <c r="E5">
+        <v>234</v>
+      </c>
+      <c r="F5">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>2.3888888888888888</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
         <v>2.2222222222222223</v>
       </c>
-      <c r="J5" t="n">
-        <v>83.0</v>
+      <c r="J5">
+        <v>83</v>
       </c>
       <c r="K5" t="s">
         <v>299</v>
@@ -37225,32 +37498,32 @@
       <c r="M5" t="s">
         <v>338</v>
       </c>
-      <c r="N5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>36.0</v>
+      <c r="N5">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>58</v>
+      </c>
+      <c r="P5">
+        <v>65</v>
+      </c>
+      <c r="Q5">
+        <v>123</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>18</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>36</v>
       </c>
       <c r="W5" t="s">
         <v>357</v>
@@ -37262,36 +37535,36 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>149</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
         <v>1.4444444444444444</v>
       </c>
-      <c r="H6" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6">
         <v>1.1176470588235294</v>
       </c>
-      <c r="J6" t="n">
-        <v>45.0</v>
+      <c r="J6">
+        <v>45</v>
       </c>
       <c r="K6" t="s">
         <v>300</v>
@@ -37302,32 +37575,32 @@
       <c r="M6" t="s">
         <v>339</v>
       </c>
-      <c r="N6" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="N6">
+        <v>35</v>
+      </c>
+      <c r="O6">
+        <v>59</v>
+      </c>
+      <c r="P6">
+        <v>70</v>
+      </c>
+      <c r="Q6">
+        <v>129</v>
+      </c>
+      <c r="R6">
+        <v>21</v>
+      </c>
+      <c r="S6">
         <v>1.1666666666666667</v>
       </c>
-      <c r="T6" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="T6">
+        <v>26</v>
+      </c>
+      <c r="U6">
         <v>1.5294117647058822</v>
       </c>
-      <c r="V6" t="n">
-        <v>47.0</v>
+      <c r="V6">
+        <v>47</v>
       </c>
       <c r="W6" t="s">
         <v>358</v>
@@ -37339,36 +37612,36 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="J7" t="n">
-        <v>33.0</v>
+      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
       </c>
       <c r="K7" t="s">
         <v>301</v>
@@ -37379,32 +37652,32 @@
       <c r="M7" t="s">
         <v>340</v>
       </c>
-      <c r="N7" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="N7">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>76</v>
+      </c>
+      <c r="P7">
+        <v>69</v>
+      </c>
+      <c r="Q7">
+        <v>145</v>
+      </c>
+      <c r="R7">
+        <v>27</v>
+      </c>
+      <c r="S7">
         <v>1.5</v>
       </c>
-      <c r="T7" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="T7">
+        <v>26</v>
+      </c>
+      <c r="U7">
         <v>1.4444444444444444</v>
       </c>
-      <c r="V7" t="n">
-        <v>53.0</v>
+      <c r="V7">
+        <v>53</v>
       </c>
       <c r="W7" t="s">
         <v>359</v>
@@ -37416,36 +37689,36 @@
         <v>392</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="C8">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>135</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8">
         <v>1.5555555555555556</v>
       </c>
-      <c r="H8" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8">
         <v>1.2777777777777777</v>
       </c>
-      <c r="J8" t="n">
-        <v>51.0</v>
+      <c r="J8">
+        <v>51</v>
       </c>
       <c r="K8" t="s">
         <v>302</v>
@@ -37456,32 +37729,32 @@
       <c r="M8" t="s">
         <v>341</v>
       </c>
-      <c r="N8" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="N8">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <v>62</v>
+      </c>
+      <c r="P8">
+        <v>69</v>
+      </c>
+      <c r="Q8">
+        <v>131</v>
+      </c>
+      <c r="R8">
+        <v>27</v>
+      </c>
+      <c r="S8">
         <v>1.5</v>
       </c>
-      <c r="T8" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="T8">
+        <v>26</v>
+      </c>
+      <c r="U8">
         <v>1.4444444444444444</v>
       </c>
-      <c r="V8" t="n">
-        <v>53.0</v>
+      <c r="V8">
+        <v>53</v>
       </c>
       <c r="W8" t="s">
         <v>360</v>
@@ -37493,36 +37766,36 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="C9">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>121</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
         <v>0.6470588235294118</v>
       </c>
-      <c r="H9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="J9" t="n">
-        <v>27.0</v>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J9">
+        <v>27</v>
       </c>
       <c r="K9" t="s">
         <v>303</v>
@@ -37533,32 +37806,32 @@
       <c r="M9" t="s">
         <v>342</v>
       </c>
-      <c r="N9" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="N9">
+        <v>35</v>
+      </c>
+      <c r="O9">
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <v>72</v>
+      </c>
+      <c r="Q9">
+        <v>126</v>
+      </c>
+      <c r="R9">
+        <v>19</v>
+      </c>
+      <c r="S9">
         <v>1.1176470588235294</v>
       </c>
-      <c r="T9" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="T9">
+        <v>27</v>
+      </c>
+      <c r="U9">
         <v>1.5</v>
       </c>
-      <c r="V9" t="n">
-        <v>46.0</v>
+      <c r="V9">
+        <v>46</v>
       </c>
       <c r="W9" t="s">
         <v>361</v>
@@ -37570,36 +37843,36 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="H10" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="J10" t="n">
-        <v>29.0</v>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>82</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="J10">
+        <v>29</v>
       </c>
       <c r="K10" t="s">
         <v>304</v>
@@ -37610,32 +37883,32 @@
       <c r="M10" t="s">
         <v>343</v>
       </c>
-      <c r="N10" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="N10">
+        <v>36</v>
+      </c>
+      <c r="O10">
+        <v>79</v>
+      </c>
+      <c r="P10">
+        <v>81</v>
+      </c>
+      <c r="Q10">
+        <v>160</v>
+      </c>
+      <c r="R10">
+        <v>23</v>
+      </c>
+      <c r="S10">
         <v>1.2777777777777777</v>
       </c>
-      <c r="T10" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="T10">
+        <v>31</v>
+      </c>
+      <c r="U10">
         <v>1.7222222222222223</v>
       </c>
-      <c r="V10" t="n">
-        <v>54.0</v>
+      <c r="V10">
+        <v>54</v>
       </c>
       <c r="W10" t="s">
         <v>362</v>
@@ -37647,36 +37920,36 @@
         <v>394</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="H11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="J11" t="n">
-        <v>26.0</v>
+      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="J11">
+        <v>26</v>
       </c>
       <c r="K11" t="s">
         <v>305</v>
@@ -37687,32 +37960,32 @@
       <c r="M11" t="s">
         <v>344</v>
       </c>
-      <c r="N11" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="T11" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="N11">
+        <v>36</v>
+      </c>
+      <c r="O11">
+        <v>41</v>
+      </c>
+      <c r="P11">
+        <v>69</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>12</v>
+      </c>
+      <c r="S11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T11">
+        <v>30</v>
+      </c>
+      <c r="U11">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V11" t="n">
-        <v>42.0</v>
+      <c r="V11">
+        <v>42</v>
       </c>
       <c r="W11" t="s">
         <v>363</v>
@@ -37724,36 +37997,36 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12">
         <v>1.411764705882353</v>
       </c>
-      <c r="H12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
         <v>1.1111111111111112</v>
       </c>
-      <c r="J12" t="n">
-        <v>44.0</v>
+      <c r="J12">
+        <v>44</v>
       </c>
       <c r="K12" t="s">
         <v>306</v>
@@ -37764,32 +38037,32 @@
       <c r="M12" t="s">
         <v>345</v>
       </c>
-      <c r="N12" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="N12">
+        <v>35</v>
+      </c>
+      <c r="O12">
+        <v>59</v>
+      </c>
+      <c r="P12">
+        <v>97</v>
+      </c>
+      <c r="Q12">
+        <v>156</v>
+      </c>
+      <c r="R12">
+        <v>21</v>
+      </c>
+      <c r="S12">
         <v>1.2352941176470589</v>
       </c>
-      <c r="T12" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>57.0</v>
+      <c r="T12">
+        <v>36</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>57</v>
       </c>
       <c r="W12" t="s">
         <v>358</v>
@@ -37801,36 +38074,36 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="J13" t="n">
-        <v>34.0</v>
+      <c r="C13">
+        <v>63</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>127</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
       </c>
       <c r="K13" t="s">
         <v>307</v>
@@ -37841,32 +38114,32 @@
       <c r="M13" t="s">
         <v>346</v>
       </c>
-      <c r="N13" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="N13">
+        <v>36</v>
+      </c>
+      <c r="O13">
+        <v>65</v>
+      </c>
+      <c r="P13">
+        <v>79</v>
+      </c>
+      <c r="Q13">
+        <v>144</v>
+      </c>
+      <c r="R13">
+        <v>21</v>
+      </c>
+      <c r="S13">
         <v>1.1666666666666667</v>
       </c>
-      <c r="T13" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="T13">
+        <v>31</v>
+      </c>
+      <c r="U13">
         <v>1.7222222222222223</v>
       </c>
-      <c r="V13" t="n">
-        <v>52.0</v>
+      <c r="V13">
+        <v>52</v>
       </c>
       <c r="W13" t="s">
         <v>364</v>
@@ -37878,36 +38151,36 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>126</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
         <v>1.3888888888888888</v>
       </c>
-      <c r="H14" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>43.0</v>
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>43</v>
       </c>
       <c r="K14" t="s">
         <v>308</v>
@@ -37918,32 +38191,32 @@
       <c r="M14" t="s">
         <v>347</v>
       </c>
-      <c r="N14" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>162.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="N14">
+        <v>36</v>
+      </c>
+      <c r="O14">
+        <v>69</v>
+      </c>
+      <c r="P14">
+        <v>93</v>
+      </c>
+      <c r="Q14">
+        <v>162</v>
+      </c>
+      <c r="R14">
+        <v>28</v>
+      </c>
+      <c r="S14">
         <v>1.5555555555555556</v>
       </c>
-      <c r="T14" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="T14">
+        <v>25</v>
+      </c>
+      <c r="U14">
         <v>1.3888888888888888</v>
       </c>
-      <c r="V14" t="n">
-        <v>53.0</v>
+      <c r="V14">
+        <v>53</v>
       </c>
       <c r="W14" t="s">
         <v>365</v>
@@ -37955,36 +38228,36 @@
         <v>397</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="C15">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+      <c r="G15">
         <v>1.1666666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="J15" t="n">
-        <v>36.0</v>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J15">
+        <v>36</v>
       </c>
       <c r="K15" t="s">
         <v>309</v>
@@ -37995,32 +38268,32 @@
       <c r="M15" t="s">
         <v>348</v>
       </c>
-      <c r="N15" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="N15">
+        <v>36</v>
+      </c>
+      <c r="O15">
+        <v>67</v>
+      </c>
+      <c r="P15">
+        <v>66</v>
+      </c>
+      <c r="Q15">
+        <v>133</v>
+      </c>
+      <c r="R15">
+        <v>22</v>
+      </c>
+      <c r="S15">
         <v>1.2222222222222223</v>
       </c>
-      <c r="T15" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>23</v>
+      </c>
+      <c r="U15">
         <v>1.2777777777777777</v>
       </c>
-      <c r="V15" t="n">
-        <v>45.0</v>
+      <c r="V15">
+        <v>45</v>
       </c>
       <c r="W15" t="s">
         <v>366</v>
@@ -38032,36 +38305,36 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="C16">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>161</v>
+      </c>
+      <c r="F16">
+        <v>31</v>
+      </c>
+      <c r="G16">
         <v>1.7222222222222223</v>
       </c>
-      <c r="H16" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>29</v>
+      </c>
+      <c r="I16">
         <v>1.7058823529411764</v>
       </c>
-      <c r="J16" t="n">
-        <v>60.0</v>
+      <c r="J16">
+        <v>60</v>
       </c>
       <c r="K16" t="s">
         <v>310</v>
@@ -38072,32 +38345,32 @@
       <c r="M16" t="s">
         <v>349</v>
       </c>
-      <c r="N16" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="T16" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="V16" t="n">
-        <v>26.0</v>
+      <c r="N16">
+        <v>35</v>
+      </c>
+      <c r="O16">
+        <v>53</v>
+      </c>
+      <c r="P16">
+        <v>57</v>
+      </c>
+      <c r="Q16">
+        <v>110</v>
+      </c>
+      <c r="R16">
+        <v>12</v>
+      </c>
+      <c r="S16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="V16">
+        <v>26</v>
       </c>
       <c r="W16" t="s">
         <v>367</v>
@@ -38109,36 +38382,36 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="C17">
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>137</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
         <v>1.4444444444444444</v>
       </c>
-      <c r="H17" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>26</v>
+      </c>
+      <c r="I17">
         <v>1.4444444444444444</v>
       </c>
-      <c r="J17" t="n">
-        <v>52.0</v>
+      <c r="J17">
+        <v>52</v>
       </c>
       <c r="K17" t="s">
         <v>311</v>
@@ -38149,32 +38422,32 @@
       <c r="M17" t="s">
         <v>350</v>
       </c>
-      <c r="N17" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="T17" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>29.0</v>
+      <c r="N17">
+        <v>36</v>
+      </c>
+      <c r="O17">
+        <v>57</v>
+      </c>
+      <c r="P17">
+        <v>60</v>
+      </c>
+      <c r="Q17">
+        <v>117</v>
+      </c>
+      <c r="R17">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="T17">
+        <v>18</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>29</v>
       </c>
       <c r="W17" t="s">
         <v>368</v>
@@ -38186,36 +38459,36 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C18">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>145</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18">
+        <v>24</v>
+      </c>
+      <c r="I18">
         <v>1.3333333333333333</v>
       </c>
-      <c r="J18" t="n">
-        <v>54.0</v>
+      <c r="J18">
+        <v>54</v>
       </c>
       <c r="K18" t="s">
         <v>312</v>
@@ -38226,32 +38499,32 @@
       <c r="M18" t="s">
         <v>351</v>
       </c>
-      <c r="N18" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="N18">
+        <v>36</v>
+      </c>
+      <c r="O18">
+        <v>56</v>
+      </c>
+      <c r="P18">
+        <v>45</v>
+      </c>
+      <c r="Q18">
+        <v>101</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
+      <c r="S18">
         <v>1.1111111111111112</v>
       </c>
-      <c r="T18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="V18" t="n">
-        <v>37.0</v>
+      <c r="T18">
+        <v>17</v>
+      </c>
+      <c r="U18">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="V18">
+        <v>37</v>
       </c>
       <c r="W18" t="s">
         <v>369</v>
@@ -38263,36 +38536,36 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="C19">
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>132</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
         <v>1.6666666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="J19" t="n">
-        <v>46.0</v>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J19">
+        <v>46</v>
       </c>
       <c r="K19" t="s">
         <v>313</v>
@@ -38303,32 +38576,32 @@
       <c r="M19" t="s">
         <v>336</v>
       </c>
-      <c r="N19" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="N19">
+        <v>36</v>
+      </c>
+      <c r="O19">
+        <v>79</v>
+      </c>
+      <c r="P19">
+        <v>82</v>
+      </c>
+      <c r="Q19">
+        <v>161</v>
+      </c>
+      <c r="R19">
+        <v>22</v>
+      </c>
+      <c r="S19">
         <v>1.2222222222222223</v>
       </c>
-      <c r="T19" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="T19">
+        <v>30</v>
+      </c>
+      <c r="U19">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V19" t="n">
-        <v>52.0</v>
+      <c r="V19">
+        <v>52</v>
       </c>
       <c r="W19" t="s">
         <v>370</v>
@@ -38340,36 +38613,36 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="C20">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>108</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
         <v>1.0588235294117647</v>
       </c>
-      <c r="H20" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J20" t="n">
-        <v>32.0</v>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J20">
+        <v>32</v>
       </c>
       <c r="K20" t="s">
         <v>314</v>
@@ -38380,32 +38653,32 @@
       <c r="M20" t="s">
         <v>352</v>
       </c>
-      <c r="N20" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>147.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="N20">
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <v>67</v>
+      </c>
+      <c r="P20">
+        <v>80</v>
+      </c>
+      <c r="Q20">
+        <v>147</v>
+      </c>
+      <c r="R20">
+        <v>26</v>
+      </c>
+      <c r="S20">
         <v>1.5294117647058822</v>
       </c>
-      <c r="T20" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20">
+        <v>23</v>
+      </c>
+      <c r="U20">
         <v>1.2777777777777777</v>
       </c>
-      <c r="V20" t="n">
-        <v>49.0</v>
+      <c r="V20">
+        <v>49</v>
       </c>
       <c r="W20" t="s">
         <v>371</v>
@@ -38417,36 +38690,36 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>153.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="C21">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
         <v>1.3888888888888888</v>
       </c>
-      <c r="H21" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="I21">
         <v>1.6470588235294117</v>
       </c>
-      <c r="J21" t="n">
-        <v>53.0</v>
+      <c r="J21">
+        <v>53</v>
       </c>
       <c r="K21" t="s">
         <v>315</v>
@@ -38457,32 +38730,32 @@
       <c r="M21" t="s">
         <v>353</v>
       </c>
-      <c r="N21" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="N21">
+        <v>35</v>
+      </c>
+      <c r="O21">
+        <v>55</v>
+      </c>
+      <c r="P21">
+        <v>62</v>
+      </c>
+      <c r="Q21">
+        <v>117</v>
+      </c>
+      <c r="R21">
+        <v>23</v>
+      </c>
+      <c r="S21">
         <v>1.2777777777777777</v>
       </c>
-      <c r="T21" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21">
+        <v>19</v>
+      </c>
+      <c r="U21">
         <v>1.1176470588235294</v>
       </c>
-      <c r="V21" t="n">
-        <v>42.0</v>
+      <c r="V21">
+        <v>42</v>
       </c>
       <c r="W21" t="s">
         <v>372</v>
@@ -38495,20 +38768,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A16" activeCellId="1" sqref="A3:XFD3 A16:XFD16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>404</v>
       </c>
@@ -38522,7 +38802,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -38539,7 +38819,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -38556,7 +38836,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -38573,7 +38853,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -38590,7 +38870,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -38607,7 +38887,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -38624,7 +38904,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -38641,7 +38921,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -38658,7 +38938,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -38675,7 +38955,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -38692,7 +38972,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -38709,7 +38989,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -38726,7 +39006,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -38743,7 +39023,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -38760,7 +39040,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -38777,7 +39057,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -38794,7 +39074,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -38811,7 +39091,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -38828,7 +39108,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -38845,7 +39125,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -38863,6 +39143,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/SP1.xlsx
+++ b/Divisions/SP1.xlsx
@@ -1317,184 +1317,184 @@
     <t>Villarreal,L L W L W W</t>
   </si>
   <si>
-    <t>Alaves,2 1 0 2 2 4</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,2 2 1 2 0 0</t>
-  </si>
-  <si>
-    <t>Ath Madrid,2 1 1 0 2 2</t>
-  </si>
-  <si>
-    <t>Barcelona,2 1 3 0 3 1</t>
-  </si>
-  <si>
-    <t>Betis,0 0 1 2 1 1</t>
-  </si>
-  <si>
-    <t>Cadiz,0 1 1 2 2 1</t>
-  </si>
-  <si>
-    <t>Celta,1 2 2 4 1 2</t>
-  </si>
-  <si>
-    <t>Eibar,1 0 3 1 1 1</t>
-  </si>
-  <si>
-    <t>Elche,1 1 0 0 0 3</t>
-  </si>
-  <si>
-    <t>Getafe,2 2 0 0 0 2</t>
-  </si>
-  <si>
-    <t>Granada,1 2 0 1 1 2</t>
-  </si>
-  <si>
-    <t>Huesca,0 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Levante,0 0 0 2 3 1</t>
-  </si>
-  <si>
-    <t>Osasuna,3 1 0 2 3 1</t>
-  </si>
-  <si>
-    <t>Real Madrid,3 0 2 2 4 1</t>
-  </si>
-  <si>
-    <t>Sevilla,1 2 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Sociedad,2 1 0 2 1 4</t>
-  </si>
-  <si>
-    <t>Valencia,1 1 2 3 0 4</t>
-  </si>
-  <si>
-    <t>Valladolid,1 2 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Villarreal,1 1 1 2 2 4</t>
-  </si>
-  <si>
-    <t>Alaves,1 1 3 2 0 2</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,1 2 0 2 1 1</t>
-  </si>
-  <si>
-    <t>Ath Madrid,0 2 0 0 1 1</t>
-  </si>
-  <si>
-    <t>Barcelona,1 2 2 0 3 2</t>
-  </si>
-  <si>
-    <t>Betis,0 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Cadiz,3 1 0 1 3 3</t>
-  </si>
-  <si>
-    <t>Celta,2 1 0 2 0 1</t>
-  </si>
-  <si>
-    <t>Eibar,4 1 0 0 1 4</t>
-  </si>
-  <si>
-    <t>Elche,1 0 1 2 2 1</t>
-  </si>
-  <si>
-    <t>Getafe,5 0 1 1 1 1</t>
-  </si>
-  <si>
-    <t>Granada,2 1 1 2 4 4</t>
-  </si>
-  <si>
-    <t>Huesca,2 2 0 2 0 1</t>
-  </si>
-  <si>
-    <t>Levante,1 1 2 2 3 2</t>
-  </si>
-  <si>
-    <t>Osasuna,1 2 2 2 2 2</t>
-  </si>
-  <si>
-    <t>Real Madrid,0 0 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Sevilla,0 1 1 2 0 4</t>
-  </si>
-  <si>
-    <t>Sociedad,1 0 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Valencia,3 1 3 0 1 1</t>
-  </si>
-  <si>
-    <t>Valladolid,1 2 1 3 2 4</t>
-  </si>
-  <si>
-    <t>Villarreal,2 2 0 4 0 0</t>
-  </si>
-  <si>
-    <t>Alaves,3 2 3 4 2 6</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,3 4 1 4 1 1</t>
-  </si>
-  <si>
-    <t>Ath Madrid,2 3 1 0 3 3</t>
-  </si>
-  <si>
-    <t>Barcelona,3 3 5 0 6 3</t>
-  </si>
-  <si>
-    <t>Betis,0 0 2 3 2 1</t>
-  </si>
-  <si>
-    <t>Cadiz,3 2 1 3 5 4</t>
-  </si>
-  <si>
-    <t>Celta,3 3 2 6 1 3</t>
-  </si>
-  <si>
-    <t>Eibar,5 1 3 1 2 5</t>
-  </si>
-  <si>
-    <t>Elche,2 1 1 2 2 4</t>
-  </si>
-  <si>
-    <t>Getafe,7 2 1 1 1 3</t>
-  </si>
-  <si>
-    <t>Granada,3 3 1 3 5 6</t>
-  </si>
-  <si>
-    <t>Huesca,2 2 1 3 1 1</t>
-  </si>
-  <si>
-    <t>Levante,1 1 2 4 6 3</t>
-  </si>
-  <si>
-    <t>Osasuna,4 3 2 4 5 3</t>
-  </si>
-  <si>
-    <t>Real Madrid,3 0 2 4 5 1</t>
-  </si>
-  <si>
-    <t>Sevilla,1 3 1 4 1 4</t>
-  </si>
-  <si>
-    <t>Sociedad,3 1 1 2 3 5</t>
-  </si>
-  <si>
-    <t>Valencia,4 2 5 3 1 5</t>
-  </si>
-  <si>
-    <t>Valladolid,2 4 2 3 2 5</t>
-  </si>
-  <si>
-    <t>Villarreal,3 3 1 6 2 4</t>
+    <t>Alaves,2 1 0 2 2 4,(11)</t>
+  </si>
+  <si>
+    <t>Ath Bilbao,2 2 1 2 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Ath Madrid,2 1 1 0 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Barcelona,2 1 3 0 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Betis,0 0 1 2 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Cadiz,0 1 1 2 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Celta,1 2 2 4 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Eibar,1 0 3 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Elche,1 1 0 0 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Getafe,2 2 0 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Granada,1 2 0 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Huesca,0 0 1 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Levante,0 0 0 2 3 1,(6)</t>
+  </si>
+  <si>
+    <t>Osasuna,3 1 0 2 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Real Madrid,3 0 2 2 4 1,(12)</t>
+  </si>
+  <si>
+    <t>Sevilla,1 2 0 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Sociedad,2 1 0 2 1 4,(10)</t>
+  </si>
+  <si>
+    <t>Valencia,1 1 2 3 0 4,(11)</t>
+  </si>
+  <si>
+    <t>Valladolid,1 2 1 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Villarreal,1 1 1 2 2 4,(11)</t>
+  </si>
+  <si>
+    <t>Alaves,1 1 3 2 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Ath Bilbao,1 2 0 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Ath Madrid,0 2 0 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Barcelona,1 2 2 0 3 2,(10)</t>
+  </si>
+  <si>
+    <t>Betis,0 0 1 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Cadiz,3 1 0 1 3 3,(11)</t>
+  </si>
+  <si>
+    <t>Celta,2 1 0 2 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Eibar,4 1 0 0 1 4,(10)</t>
+  </si>
+  <si>
+    <t>Elche,1 0 1 2 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Getafe,5 0 1 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Granada,2 1 1 2 4 4,(14)</t>
+  </si>
+  <si>
+    <t>Huesca,2 2 0 2 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Levante,1 1 2 2 3 2,(11)</t>
+  </si>
+  <si>
+    <t>Osasuna,1 2 2 2 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Real Madrid,0 0 0 2 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Sevilla,0 1 1 2 0 4,(8)</t>
+  </si>
+  <si>
+    <t>Sociedad,1 0 1 0 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Valencia,3 1 3 0 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Valladolid,1 2 1 3 2 4,(13)</t>
+  </si>
+  <si>
+    <t>Villarreal,2 2 0 4 0 0,(8)</t>
+  </si>
+  <si>
+    <t>Alaves,3 2 3 4 2 6,(20)</t>
+  </si>
+  <si>
+    <t>Ath Bilbao,3 4 1 4 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Ath Madrid,2 3 1 0 3 3,(12)</t>
+  </si>
+  <si>
+    <t>Barcelona,3 3 5 0 6 3,(20)</t>
+  </si>
+  <si>
+    <t>Betis,0 0 2 3 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Cadiz,3 2 1 3 5 4,(18)</t>
+  </si>
+  <si>
+    <t>Celta,3 3 2 6 1 3,(18)</t>
+  </si>
+  <si>
+    <t>Eibar,5 1 3 1 2 5,(17)</t>
+  </si>
+  <si>
+    <t>Elche,2 1 1 2 2 4,(12)</t>
+  </si>
+  <si>
+    <t>Getafe,7 2 1 1 1 3,(15)</t>
+  </si>
+  <si>
+    <t>Granada,3 3 1 3 5 6,(21)</t>
+  </si>
+  <si>
+    <t>Huesca,2 2 1 3 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Levante,1 1 2 4 6 3,(17)</t>
+  </si>
+  <si>
+    <t>Osasuna,4 3 2 4 5 3,(21)</t>
+  </si>
+  <si>
+    <t>Real Madrid,3 0 2 4 5 1,(15)</t>
+  </si>
+  <si>
+    <t>Sevilla,1 3 1 4 1 4,(14)</t>
+  </si>
+  <si>
+    <t>Sociedad,3 1 1 2 3 5,(15)</t>
+  </si>
+  <si>
+    <t>Valencia,4 2 5 3 1 5,(20)</t>
+  </si>
+  <si>
+    <t>Valladolid,2 4 2 3 2 5,(18)</t>
+  </si>
+  <si>
+    <t>Villarreal,3 3 1 6 2 4,(19)</t>
   </si>
   <si>
     <t>Alaves,Villarreal Valencia Eibar Levante Elche Granada</t>

--- a/Divisions/SP1.xlsx
+++ b/Divisions/SP1.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Cards" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9414" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9247" uniqueCount="553">
   <si>
     <t>Team</t>
   </si>
@@ -1682,447 +1681,6 @@
   </si>
   <si>
     <t>27.42%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Alaves,D L W W W L</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,D W L W D W</t>
-  </si>
-  <si>
-    <t>Ath Madrid,W W W D W D</t>
-  </si>
-  <si>
-    <t>Barcelona,W L L W W L</t>
-  </si>
-  <si>
-    <t>Betis,L W W L L W</t>
-  </si>
-  <si>
-    <t>Cadiz,W W L L W D</t>
-  </si>
-  <si>
-    <t>Celta,W D L L W W</t>
-  </si>
-  <si>
-    <t>Elche,L L W D L W</t>
-  </si>
-  <si>
-    <t>Espanol,W W W L D D</t>
-  </si>
-  <si>
-    <t>Getafe,D W L D D D</t>
-  </si>
-  <si>
-    <t>Granada,L D L D W D</t>
-  </si>
-  <si>
-    <t>Levante,D W L L W W</t>
-  </si>
-  <si>
-    <t>Mallorca,L L W W L W</t>
-  </si>
-  <si>
-    <t>Osasuna,W W W L D L</t>
-  </si>
-  <si>
-    <t>Real Madrid,W L W W W D</t>
-  </si>
-  <si>
-    <t>Sevilla,D W L D D W</t>
-  </si>
-  <si>
-    <t>Sociedad,W W D L W L</t>
-  </si>
-  <si>
-    <t>Valencia,W D L D L W</t>
-  </si>
-  <si>
-    <t>Vallecano,D L D D L L</t>
-  </si>
-  <si>
-    <t>Villarreal,W W D W D L</t>
-  </si>
-  <si>
-    <t>Alaves,0 2 1 2 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,1 2 0 2 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Ath Madrid,2 4 2 0 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Barcelona,1 0 0 2 3 0,(6)</t>
-  </si>
-  <si>
-    <t>Betis,1 1 4 0 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Cadiz,2 1 1 2 3 1,(10)</t>
-  </si>
-  <si>
-    <t>Celta,4 0 1 0 4 1,(10)</t>
-  </si>
-  <si>
-    <t>Elche,0 1 3 1 0 3,(8)</t>
-  </si>
-  <si>
-    <t>Espanol,2 1 1 0 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Getafe,0 1 1 0 0 0,(2)</t>
-  </si>
-  <si>
-    <t>Granada,0 2 1 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Levante,1 2 2 2 2 3,(12)</t>
-  </si>
-  <si>
-    <t>Mallorca,0 0 1 2 2 2,(7)</t>
-  </si>
-  <si>
-    <t>Osasuna,1 3 1 1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Real Madrid,4 0 2 4 6 0,(16)</t>
-  </si>
-  <si>
-    <t>Sevilla,0 4 2 1 0 1,(8)</t>
-  </si>
-  <si>
-    <t>Sociedad,1 1 0 0 3 1,(6)</t>
-  </si>
-  <si>
-    <t>Valencia,3 0 1 1 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Vallecano,1 0 1 1 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Villarreal,5 1 1 2 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Alaves,0 3 0 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,1 1 2 0 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Ath Madrid,1 1 1 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Barcelona,0 1 1 1 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Betis,3 0 1 1 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Cadiz,0 0 2 3 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Celta,3 0 2 2 0 0,(7)</t>
-  </si>
-  <si>
-    <t>Elche,1 2 0 1 2 1,(7)</t>
-  </si>
-  <si>
-    <t>Espanol,0 0 0 1 1 1,(3)</t>
-  </si>
-  <si>
-    <t>Getafe,0 0 2 0 0 0,(2)</t>
-  </si>
-  <si>
-    <t>Granada,1 2 4 1 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Levante,1 0 3 3 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Mallorca,2 3 0 1 6 1,(13)</t>
-  </si>
-  <si>
-    <t>Osasuna,0 1 0 3 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Real Madrid,1 4 0 0 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Sevilla,0 2 3 1 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Sociedad,0 0 0 1 0 2,(3)</t>
-  </si>
-  <si>
-    <t>Valencia,1 0 2 1 3 0,(7)</t>
-  </si>
-  <si>
-    <t>Vallecano,1 1 1 1 5 4,(13)</t>
-  </si>
-  <si>
-    <t>Villarreal,1 0 1 0 1 2,(5)</t>
-  </si>
-  <si>
-    <t>Alaves,0 5 1 3 3 1,(13)</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,2 3 2 2 0 2,(11)</t>
-  </si>
-  <si>
-    <t>Ath Madrid,3 5 3 0 1 2,(14)</t>
-  </si>
-  <si>
-    <t>Barcelona,1 1 1 3 4 2,(12)</t>
-  </si>
-  <si>
-    <t>Betis,4 1 5 1 3 2,(16)</t>
-  </si>
-  <si>
-    <t>Cadiz,2 1 3 5 3 2,(16)</t>
-  </si>
-  <si>
-    <t>Celta,7 0 3 2 4 1,(17)</t>
-  </si>
-  <si>
-    <t>Elche,1 3 3 2 2 4,(15)</t>
-  </si>
-  <si>
-    <t>Espanol,2 1 1 1 2 2,(9)</t>
-  </si>
-  <si>
-    <t>Getafe,0 1 3 0 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Granada,1 4 5 2 1 0,(13)</t>
-  </si>
-  <si>
-    <t>Levante,2 2 5 5 3 4,(21)</t>
-  </si>
-  <si>
-    <t>Mallorca,2 3 1 3 8 3,(20)</t>
-  </si>
-  <si>
-    <t>Osasuna,1 4 1 4 2 2,(14)</t>
-  </si>
-  <si>
-    <t>Real Madrid,5 4 2 4 6 0,(21)</t>
-  </si>
-  <si>
-    <t>Sevilla,0 6 5 2 0 1,(14)</t>
-  </si>
-  <si>
-    <t>Sociedad,1 1 0 1 3 3,(9)</t>
-  </si>
-  <si>
-    <t>Valencia,4 0 3 2 3 2,(14)</t>
-  </si>
-  <si>
-    <t>Vallecano,2 1 2 2 6 6,(19)</t>
-  </si>
-  <si>
-    <t>Villarreal,6 1 2 2 2 3,(16)</t>
-  </si>
-  <si>
-    <t>Alaves,0-0 2-3 1-0 2-1 2-1 0-1</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,1-1 2-1 0-2 2-0 0-0 2-0</t>
-  </si>
-  <si>
-    <t>Ath Madrid,2-1 4-1 2-1 0-0 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Barcelona,1-0 0-1 0-1 2-1 3-1 0-2</t>
-  </si>
-  <si>
-    <t>Betis,1-3 1-0 4-1 0-1 1-2 2-0</t>
-  </si>
-  <si>
-    <t>Cadiz,2-0 1-0 1-2 2-3 3-0 1-1</t>
-  </si>
-  <si>
-    <t>Celta,4-3 0-0 1-2 0-2 4-0 1-0</t>
-  </si>
-  <si>
-    <t>Elche,0-1 1-2 3-0 1-1 0-2 3-1</t>
-  </si>
-  <si>
-    <t>Espanol,2-0 1-0 1-0 0-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Getafe,0-0 1-0 1-2 0-0 0-0 0-0</t>
-  </si>
-  <si>
-    <t>Granada,0-1 2-2 1-4 1-1 1-0 0-0</t>
-  </si>
-  <si>
-    <t>Levante,1-1 2-0 2-3 2-3 2-1 3-1</t>
-  </si>
-  <si>
-    <t>Mallorca,0-2 0-3 1-0 2-1 2-6 2-1</t>
-  </si>
-  <si>
-    <t>Osasuna,1-0 3-1 1-0 1-3 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Real Madrid,4-1 0-4 2-0 4-0 6-0 0-0</t>
-  </si>
-  <si>
-    <t>Sevilla,0-0 4-2 2-3 1-1 0-0 1-0</t>
-  </si>
-  <si>
-    <t>Sociedad,1-0 1-0 0-0 0-1 3-0 1-2</t>
-  </si>
-  <si>
-    <t>Valencia,3-1 0-0 1-2 1-1 0-3 2-0</t>
-  </si>
-  <si>
-    <t>Vallecano,1-1 0-1 1-1 1-1 1-5 2-4</t>
-  </si>
-  <si>
-    <t>Villarreal,5-1 1-0 1-1 2-0 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Alaves,0 -1 1 1 1 -1,(1)</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,0 1 -2 2 0 2,(3)</t>
-  </si>
-  <si>
-    <t>Ath Madrid,1 3 1 0 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Barcelona,1 -1 -1 1 2 -2,(0)</t>
-  </si>
-  <si>
-    <t>Betis,-2 1 3 -1 -1 2,(2)</t>
-  </si>
-  <si>
-    <t>Cadiz,2 1 -1 -1 3 0,(4)</t>
-  </si>
-  <si>
-    <t>Celta,1 0 -1 -2 4 1,(3)</t>
-  </si>
-  <si>
-    <t>Elche,-1 -1 3 0 -2 2,(1)</t>
-  </si>
-  <si>
-    <t>Espanol,2 1 1 -1 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Getafe,0 1 -1 0 0 0,(0)</t>
-  </si>
-  <si>
-    <t>Granada,-1 0 -3 0 1 0,(-3)</t>
-  </si>
-  <si>
-    <t>Levante,0 2 -1 -1 1 2,(3)</t>
-  </si>
-  <si>
-    <t>Mallorca,-2 -3 1 1 -4 1,(-6)</t>
-  </si>
-  <si>
-    <t>Osasuna,1 2 1 -2 0 -2,(0)</t>
-  </si>
-  <si>
-    <t>Real Madrid,3 -4 2 4 6 0,(11)</t>
-  </si>
-  <si>
-    <t>Sevilla,0 2 -1 0 0 1,(2)</t>
-  </si>
-  <si>
-    <t>Sociedad,1 1 0 -1 3 -1,(3)</t>
-  </si>
-  <si>
-    <t>Valencia,2 0 -1 0 -3 2,(0)</t>
-  </si>
-  <si>
-    <t>Vallecano,0 -1 0 0 -4 -2,(-7)</t>
-  </si>
-  <si>
-    <t>Villarreal,4 1 0 2 0 -1,(6)</t>
-  </si>
-  <si>
-    <t>Alaves,Sevilla(4) Granada(18) Vallecano(14) Villarreal(7) Espanol(13) Cadiz(15)</t>
-  </si>
-  <si>
-    <t>Ath Bilbao,Getafe(16) Elche(12) Celta(11) Ath Madrid(3) Valencia(9) Osasuna(10)</t>
-  </si>
-  <si>
-    <t>Ath Madrid,Cadiz(15) Alaves(20) Espanol(13) Granada(18) Real Madrid(1) Sevilla(4)</t>
-  </si>
-  <si>
-    <t>Barcelona,Sevilla(4) Cadiz(15) Vallecano(14) Mallorca(17) Celta(11) Villarreal(7)</t>
-  </si>
-  <si>
-    <t>Betis,Ath Madrid(3) Ath Bilbao(8) Osasuna(10) Elche(12) Barcelona(2) Granada(18)</t>
-  </si>
-  <si>
-    <t>Cadiz,Vallecano(14) Villarreal(7) Betis(5) Ath Bilbao(8) Elche(12) Real Madrid(1)</t>
-  </si>
-  <si>
-    <t>Celta,Mallorca(17) Betis(5) Real Madrid(1) Getafe(16) Alaves(20) Elche(12)</t>
-  </si>
-  <si>
-    <t>Elche,Valencia(9) Sociedad(6) Mallorca(17) Osasuna(10) Ath Madrid(3) Getafe(16)</t>
-  </si>
-  <si>
-    <t>Espanol,Getafe(16) Mallorca(17) Celta(11) Vallecano(14) Osasuna(10) Valencia(9)</t>
-  </si>
-  <si>
-    <t>Getafe,Valencia(9) Mallorca(17) Villarreal(7) Betis(5) Vallecano(14) Barcelona(2)</t>
-  </si>
-  <si>
-    <t>Granada,Elche(12) Vallecano(14) Levante(19) Celta(11) Ath Bilbao(8) Espanol(13)</t>
-  </si>
-  <si>
-    <t>Levante,Espanol(13) Villarreal(7) Barcelona(2) Sevilla(4) Sociedad(6) Alaves(20)</t>
-  </si>
-  <si>
-    <t>Mallorca,Sociedad(6) Real Madrid(1) Ath Madrid(3) Alaves(20) Granada(18) Vallecano(14)</t>
-  </si>
-  <si>
-    <t>Osasuna,Villarreal(7) Levante(19) Alaves(20) Real Madrid(1) Getafe(16) Mallorca(17)</t>
-  </si>
-  <si>
-    <t>Real Madrid,Sociedad(6) Barcelona(2) Getafe(16) Espanol(13) Levante(19) Betis(5)</t>
-  </si>
-  <si>
-    <t>Sevilla,Sociedad(6) Granada(18) Real Madrid(1) Cadiz(15) Mallorca(17) Ath Bilbao(8)</t>
-  </si>
-  <si>
-    <t>Sociedad,Alaves(20) Espanol(13) Betis(5) Barcelona(2) Cadiz(15) Ath Madrid(3)</t>
-  </si>
-  <si>
-    <t>Valencia,Granada(18) Cadiz(15) Osasuna(10) Levante(19) Betis(5) Celta(11)</t>
-  </si>
-  <si>
-    <t>Vallecano,Sevilla(4) Ath Madrid(3) Valencia(9) Sociedad(6) Villarreal(7) Levante(19)</t>
-  </si>
-  <si>
-    <t>Villarreal,Espanol(13) Celta(11) Ath Bilbao(8) Valencia(9) Sevilla(4) Sociedad(6)</t>
   </si>
 </sst>
 </file>
@@ -5474,563 +5032,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1" t="s">
-        <v>557</v>
-      </c>
-      <c r="G1" t="s">
-        <v>558</v>
-      </c>
-      <c r="H1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E2" t="s">
-        <v>620</v>
-      </c>
-      <c r="F2" t="s">
-        <v>640</v>
-      </c>
-      <c r="G2" t="s">
-        <v>660</v>
-      </c>
-      <c r="H2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E3" t="s">
-        <v>621</v>
-      </c>
-      <c r="F3" t="s">
-        <v>641</v>
-      </c>
-      <c r="G3" t="s">
-        <v>661</v>
-      </c>
-      <c r="H3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D4" t="s">
-        <v>602</v>
-      </c>
-      <c r="E4" t="s">
-        <v>622</v>
-      </c>
-      <c r="F4" t="s">
-        <v>642</v>
-      </c>
-      <c r="G4" t="s">
-        <v>662</v>
-      </c>
-      <c r="H4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E5" t="s">
-        <v>623</v>
-      </c>
-      <c r="F5" t="s">
-        <v>643</v>
-      </c>
-      <c r="G5" t="s">
-        <v>663</v>
-      </c>
-      <c r="H5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E6" t="s">
-        <v>624</v>
-      </c>
-      <c r="F6" t="s">
-        <v>644</v>
-      </c>
-      <c r="G6" t="s">
-        <v>664</v>
-      </c>
-      <c r="H6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>565</v>
-      </c>
-      <c r="C7" t="s">
-        <v>585</v>
-      </c>
-      <c r="D7" t="s">
-        <v>605</v>
-      </c>
-      <c r="E7" t="s">
-        <v>625</v>
-      </c>
-      <c r="F7" t="s">
-        <v>645</v>
-      </c>
-      <c r="G7" t="s">
-        <v>665</v>
-      </c>
-      <c r="H7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>566</v>
-      </c>
-      <c r="C8" t="s">
-        <v>586</v>
-      </c>
-      <c r="D8" t="s">
-        <v>606</v>
-      </c>
-      <c r="E8" t="s">
-        <v>626</v>
-      </c>
-      <c r="F8" t="s">
-        <v>646</v>
-      </c>
-      <c r="G8" t="s">
-        <v>666</v>
-      </c>
-      <c r="H8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>567</v>
-      </c>
-      <c r="C9" t="s">
-        <v>587</v>
-      </c>
-      <c r="D9" t="s">
-        <v>607</v>
-      </c>
-      <c r="E9" t="s">
-        <v>627</v>
-      </c>
-      <c r="F9" t="s">
-        <v>647</v>
-      </c>
-      <c r="G9" t="s">
-        <v>667</v>
-      </c>
-      <c r="H9" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C10" t="s">
-        <v>588</v>
-      </c>
-      <c r="D10" t="s">
-        <v>608</v>
-      </c>
-      <c r="E10" t="s">
-        <v>628</v>
-      </c>
-      <c r="F10" t="s">
-        <v>648</v>
-      </c>
-      <c r="G10" t="s">
-        <v>668</v>
-      </c>
-      <c r="H10" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>569</v>
-      </c>
-      <c r="C11" t="s">
-        <v>589</v>
-      </c>
-      <c r="D11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E11" t="s">
-        <v>629</v>
-      </c>
-      <c r="F11" t="s">
-        <v>649</v>
-      </c>
-      <c r="G11" t="s">
-        <v>669</v>
-      </c>
-      <c r="H11" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>570</v>
-      </c>
-      <c r="C12" t="s">
-        <v>590</v>
-      </c>
-      <c r="D12" t="s">
-        <v>610</v>
-      </c>
-      <c r="E12" t="s">
-        <v>630</v>
-      </c>
-      <c r="F12" t="s">
-        <v>650</v>
-      </c>
-      <c r="G12" t="s">
-        <v>670</v>
-      </c>
-      <c r="H12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>571</v>
-      </c>
-      <c r="C13" t="s">
-        <v>591</v>
-      </c>
-      <c r="D13" t="s">
-        <v>611</v>
-      </c>
-      <c r="E13" t="s">
-        <v>631</v>
-      </c>
-      <c r="F13" t="s">
-        <v>651</v>
-      </c>
-      <c r="G13" t="s">
-        <v>671</v>
-      </c>
-      <c r="H13" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>572</v>
-      </c>
-      <c r="C14" t="s">
-        <v>592</v>
-      </c>
-      <c r="D14" t="s">
-        <v>612</v>
-      </c>
-      <c r="E14" t="s">
-        <v>632</v>
-      </c>
-      <c r="F14" t="s">
-        <v>652</v>
-      </c>
-      <c r="G14" t="s">
-        <v>672</v>
-      </c>
-      <c r="H14" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>573</v>
-      </c>
-      <c r="C15" t="s">
-        <v>593</v>
-      </c>
-      <c r="D15" t="s">
-        <v>613</v>
-      </c>
-      <c r="E15" t="s">
-        <v>633</v>
-      </c>
-      <c r="F15" t="s">
-        <v>653</v>
-      </c>
-      <c r="G15" t="s">
-        <v>673</v>
-      </c>
-      <c r="H15" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>574</v>
-      </c>
-      <c r="C16" t="s">
-        <v>594</v>
-      </c>
-      <c r="D16" t="s">
-        <v>614</v>
-      </c>
-      <c r="E16" t="s">
-        <v>634</v>
-      </c>
-      <c r="F16" t="s">
-        <v>654</v>
-      </c>
-      <c r="G16" t="s">
-        <v>674</v>
-      </c>
-      <c r="H16" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>575</v>
-      </c>
-      <c r="C17" t="s">
-        <v>595</v>
-      </c>
-      <c r="D17" t="s">
-        <v>615</v>
-      </c>
-      <c r="E17" t="s">
-        <v>635</v>
-      </c>
-      <c r="F17" t="s">
-        <v>655</v>
-      </c>
-      <c r="G17" t="s">
-        <v>675</v>
-      </c>
-      <c r="H17" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>576</v>
-      </c>
-      <c r="C18" t="s">
-        <v>596</v>
-      </c>
-      <c r="D18" t="s">
-        <v>616</v>
-      </c>
-      <c r="E18" t="s">
-        <v>636</v>
-      </c>
-      <c r="F18" t="s">
-        <v>656</v>
-      </c>
-      <c r="G18" t="s">
-        <v>676</v>
-      </c>
-      <c r="H18" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>577</v>
-      </c>
-      <c r="C19" t="s">
-        <v>597</v>
-      </c>
-      <c r="D19" t="s">
-        <v>617</v>
-      </c>
-      <c r="E19" t="s">
-        <v>637</v>
-      </c>
-      <c r="F19" t="s">
-        <v>657</v>
-      </c>
-      <c r="G19" t="s">
-        <v>677</v>
-      </c>
-      <c r="H19" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>578</v>
-      </c>
-      <c r="C20" t="s">
-        <v>598</v>
-      </c>
-      <c r="D20" t="s">
-        <v>618</v>
-      </c>
-      <c r="E20" t="s">
-        <v>638</v>
-      </c>
-      <c r="F20" t="s">
-        <v>658</v>
-      </c>
-      <c r="G20" t="s">
-        <v>678</v>
-      </c>
-      <c r="H20" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>579</v>
-      </c>
-      <c r="C21" t="s">
-        <v>599</v>
-      </c>
-      <c r="D21" t="s">
-        <v>619</v>
-      </c>
-      <c r="E21" t="s">
-        <v>639</v>
-      </c>
-      <c r="F21" t="s">
-        <v>659</v>
-      </c>
-      <c r="G21" t="s">
-        <v>679</v>
-      </c>
-      <c r="H21" t="s">
-        <v>699</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
